--- a/templates/AutomationOrg/Regular Work order complete Flow without reversals.xlsx
+++ b/templates/AutomationOrg/Regular Work order complete Flow without reversals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438971C1-3C07-4C64-A59D-787F1DE6E713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B3F4D0-57EE-420E-9050-D0D2731A7906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -557,7 +557,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD1048576"/>
     </sheetView>
   </sheetViews>
